--- a/medicine/Enfance/Oriane_Lassus/Oriane_Lassus.xlsx
+++ b/medicine/Enfance/Oriane_Lassus/Oriane_Lassus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oriane Lassus (née en 1987) est une autrice et dessinatrice de bande dessinée, ainsi qu'illustratrice française.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès 2009, Oriane Lassus alimente le blog Spongiculture dans lequel l'auteure et dessinatrice passe au crible son quotidien sur fond d'humour acerbe. Le projet obtient le « prix Révélation Blog » deux ans plus tard, lors du Festival international de la bande dessinée d'Angoulême[1],[2]. 
-Après un Master en illustration à l’Académie royale des beaux-arts de Bruxelles, elle publie sa première bande dessinée Ça va derrière ? aux éditions Vraoum en 2012. L'ouvrage explore les micro-évènements individuels qui ponctuent la cellule familiale[3]. 
-Elle participe régulièrement aux résidences d'artistes Pierre Feuille Ciseaux organisée à Arc-et-Senans et réunissant chaque année une sélection d'auteurs parmi les plus innovants de la scène littéraire alternative[4].
-Depuis 2014, elle collabore au magazine jeunesse Biscoto, dans lequel elle publie notamment le récit Le Meilleurissime Repaire de la Terre, retenu dans la sélection jeunesse du Festival d'Angoulême 2018 et objet d'une exposition au pavillon Jeunes talents[5],[6].
-En 2016, la bande dessinée Quoi de plus normal qu'infliger la vie ? est éditée aux éditions Arbitraire[7]. Oriane Lassus y met en avant la situation encore taboue des femmes nullipares, ces femmes qui choisissent de ne pas avoir d’enfants[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 2009, Oriane Lassus alimente le blog Spongiculture dans lequel l'auteure et dessinatrice passe au crible son quotidien sur fond d'humour acerbe. Le projet obtient le « prix Révélation Blog » deux ans plus tard, lors du Festival international de la bande dessinée d'Angoulême,. 
+Après un Master en illustration à l’Académie royale des beaux-arts de Bruxelles, elle publie sa première bande dessinée Ça va derrière ? aux éditions Vraoum en 2012. L'ouvrage explore les micro-évènements individuels qui ponctuent la cellule familiale. 
+Elle participe régulièrement aux résidences d'artistes Pierre Feuille Ciseaux organisée à Arc-et-Senans et réunissant chaque année une sélection d'auteurs parmi les plus innovants de la scène littéraire alternative.
+Depuis 2014, elle collabore au magazine jeunesse Biscoto, dans lequel elle publie notamment le récit Le Meilleurissime Repaire de la Terre, retenu dans la sélection jeunesse du Festival d'Angoulême 2018 et objet d'une exposition au pavillon Jeunes talents,.
+En 2016, la bande dessinée Quoi de plus normal qu'infliger la vie ? est éditée aux éditions Arbitraire. Oriane Lassus y met en avant la situation encore taboue des femmes nullipares, ces femmes qui choisissent de ne pas avoir d’enfants.
 </t>
         </is>
       </c>
@@ -546,12 +560,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ça va derrière ?, Vraoum, 2012
 Immobilerie Pointure, Super Structure, 2013
 Quoi de plus normal qu'infliger la vie ?, Arbitraire, 2016
-Première fraîcheur, Arbitraire, 2017[9]
+Première fraîcheur, Arbitraire, 2017
 Le Meilleurissime Repaire de la Terre, Biscoto, 2017
 Les Gardiennes du grenier, Biscoto, 2020
 Sylvie pour la caisse 5, éd. Hécatombe 2022  (ISBN 978-2940432400)</t>
@@ -582,10 +598,12 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Meilleurissime Repaire de la Terre, Festival d'Angoulême 2018, Pavillon Jeunes Talents, janvier 2018
-Oriane Lassus : Lauréate du Prix de l’ÉESI 2020, Exposition personnelle, Éesi Angoulême, du 30 janvier au 15 février 2020[10]</t>
+Oriane Lassus : Lauréate du Prix de l’ÉESI 2020, Exposition personnelle, Éesi Angoulême, du 30 janvier au 15 février 2020</t>
         </is>
       </c>
     </row>
@@ -613,10 +631,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2011 : Prix Révélation Blog pour Spongiculture, Festival international de la bande dessinée d'Angoulême
-2020 : Lauréate du prix de l'Éesi[11]</t>
+2020 : Lauréate du prix de l'Éesi</t>
         </is>
       </c>
     </row>
